--- a/Квантовая физика/5.5.1 Измерение коэффицента ослабления/Книга1.xlsx
+++ b/Квантовая физика/5.5.1 Измерение коэффицента ослабления/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebm\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Глеб\Desktop\Лабы\Квантовая физика\5.5.1 Измерение коэффицента ослабления\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57C5C51-A52C-4AF1-A24E-79969D4AC417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A2F020-A4E7-4FBF-AD9E-523912439D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6657BBC3-7013-4667-9694-E7EB9AD81AD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6657BBC3-7013-4667-9694-E7EB9AD81AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>l</t>
   </si>
@@ -51,9 +51,6 @@
     <t>ln(N)</t>
   </si>
   <si>
-    <t>μ</t>
-  </si>
-  <si>
     <t>1/N0</t>
   </si>
   <si>
@@ -64,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +69,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE60D6D5-EA2F-4DEE-B3C6-B6ED428DC6EB}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -443,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -454,8 +443,8 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
+      <c r="O1" t="s">
+        <v>6</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -466,11 +455,11 @@
       <c r="T1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
+      <c r="V1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>325</v>
       </c>
@@ -478,7 +467,7 @@
         <v>147581</v>
       </c>
       <c r="D2">
-        <v>20.100000000000001</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="E2">
         <v>85850</v>
@@ -495,8 +484,12 @@
         <f>LN($B$6 / E2)</f>
         <v>0.47241529852546016</v>
       </c>
+      <c r="I2">
+        <f>0.013*H2</f>
+        <v>6.1413988808309821E-3</v>
+      </c>
       <c r="K2">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="L2">
         <v>73884</v>
@@ -513,8 +506,12 @@
         <f>LN($B$6 / L2)</f>
         <v>0.62252059015187133</v>
       </c>
+      <c r="P2">
+        <f>0.013*O2</f>
+        <v>8.0927676719743276E-3</v>
+      </c>
       <c r="R2">
-        <v>4.5999999999999996</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S2">
         <v>78161</v>
@@ -531,8 +528,12 @@
         <f>LN($B$6 / S2)</f>
         <v>0.5662460839480955</v>
       </c>
+      <c r="W2">
+        <f>0.013*V2</f>
+        <v>7.3611990913252413E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>347</v>
       </c>
@@ -540,7 +541,7 @@
         <v>132894</v>
       </c>
       <c r="D3">
-        <v>40.200000000000003</v>
+        <v>4.0200000000000005</v>
       </c>
       <c r="E3">
         <v>56877</v>
@@ -557,44 +558,56 @@
         <f t="shared" ref="H3:H7" si="2">LN($B$6 / E3)</f>
         <v>0.88412584438093367</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="3">0.013*H3</f>
+        <v>1.1493635976952138E-2</v>
+      </c>
       <c r="K3">
-        <v>20.2</v>
+        <v>2.02</v>
       </c>
       <c r="L3">
         <v>43262</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="3">LN(L3)</f>
+        <f t="shared" ref="M3:M8" si="4">LN(L3)</f>
         <v>10.675029930523447</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="4">0.003*M3</f>
+        <f t="shared" ref="N3:N8" si="5">0.003*M3</f>
         <v>3.2025089791570344E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="5">LN($B$6 / L3)</f>
+        <f t="shared" ref="O3:O8" si="6">LN($B$6 / L3)</f>
         <v>1.1577422343276349</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" si="7">0.013*O3</f>
+        <v>1.5050649046259253E-2</v>
+      </c>
       <c r="R3">
-        <v>9.1999999999999993</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="S3">
         <v>45526</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="6">LN(S3)</f>
+        <f t="shared" ref="T3:T7" si="8">LN(S3)</f>
         <v>10.726038870307335</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="7">0.003*T3</f>
+        <f t="shared" ref="U3:U7" si="9">0.003*T3</f>
         <v>3.2178116610922007E-2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V7" si="8">LN($B$6 / S3)</f>
+        <f t="shared" ref="V3:V7" si="10">LN($B$6 / S3)</f>
         <v>1.1067332945437478</v>
       </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" si="11">0.013*V3</f>
+        <v>1.4387532829068721E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>297</v>
       </c>
@@ -602,7 +615,7 @@
         <v>132600</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>38099</v>
@@ -619,46 +632,58 @@
         <f t="shared" si="2"/>
         <v>1.2848288507999006</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.6702775060398706E-2</v>
+      </c>
       <c r="K4">
-        <v>30.3</v>
+        <v>3.0300000000000002</v>
       </c>
       <c r="L4">
         <v>25453</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.144588893224116</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0433766679672347E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6881832716269669</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>2.1946382531150568E-2</v>
+      </c>
       <c r="R4">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="S4">
         <v>27218</v>
       </c>
       <c r="T4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.211633798120262</v>
       </c>
       <c r="U4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0634901394360786E-2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.621138366730819</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="11"/>
+        <v>2.1074798767500645E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D5">
-        <v>79.8</v>
+        <v>7.9799999999999995</v>
       </c>
       <c r="E5">
         <v>26288</v>
@@ -675,44 +700,56 @@
         <f t="shared" si="2"/>
         <v>1.6559043245740326</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2.1526756219462422E-2</v>
+      </c>
       <c r="K5">
-        <v>40.4</v>
+        <v>4.04</v>
       </c>
       <c r="L5">
         <v>15238</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.631547587032955</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8894642761098866E-2</v>
       </c>
       <c r="O5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2012245778181265</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>2.8615919511635644E-2</v>
+      </c>
       <c r="R5">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
         <v>17495</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7696704048017882</v>
       </c>
       <c r="U5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9309011214405364E-2</v>
       </c>
       <c r="V5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0631017600492934</v>
       </c>
+      <c r="W5">
+        <f t="shared" si="11"/>
+        <v>2.6820322880640811E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>AVERAGE(A2:A4)</f>
         <v>323</v>
@@ -722,7 +759,7 @@
         <v>137691.66666666666</v>
       </c>
       <c r="D6">
-        <v>99.9</v>
+        <v>9.99</v>
       </c>
       <c r="E6">
         <v>18073</v>
@@ -739,44 +776,56 @@
         <f t="shared" si="2"/>
         <v>2.0305977740154431</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2.6397771062200759E-2</v>
+      </c>
       <c r="K6">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="L6">
         <v>9771</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1871740939443427</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7561522281833027E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6455980709067384</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>3.4392774921787599E-2</v>
+      </c>
       <c r="R6">
-        <v>23.9</v>
+        <v>2.3899999999999997</v>
       </c>
       <c r="S6">
         <v>12236</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4121377052707942</v>
       </c>
       <c r="U6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8236413115812382E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4206344595802878</v>
       </c>
+      <c r="W6">
+        <f t="shared" si="11"/>
+        <v>3.1468247974543742E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>_xlfn.VAR.S(A2:A4)</f>
         <v>628</v>
@@ -786,7 +835,7 @@
         <v>73370794.333333343</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>12848</v>
@@ -803,44 +852,56 @@
         <f t="shared" si="2"/>
         <v>2.3718287286645388</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>3.0833773472639003E-2</v>
+      </c>
       <c r="K7">
-        <v>60.5</v>
+        <v>6.05</v>
       </c>
       <c r="L7">
         <v>6405</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7648342143308344</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6294502642992504E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0679379505202471</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>3.9883193356763214E-2</v>
+      </c>
       <c r="R7">
-        <v>28.8</v>
+        <v>2.88</v>
       </c>
       <c r="S7">
         <v>8937</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.097955241381392</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7293865724144176E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.73481692346969</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>3.5552620005105971E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SQRT(A7)</f>
         <v>25.059928172283335</v>
@@ -850,30 +911,34 @@
         <v>8565.6753576897445</v>
       </c>
       <c r="K8">
-        <v>70.599999999999994</v>
+        <v>7.06</v>
       </c>
       <c r="L8">
         <v>4373</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3832045514129199</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5149613654238762E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4495676134381612</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>4.4844378974696092E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>LN(1/B6)</f>
         <v>-11.832772164851082</v>
